--- a/notebooks/output/multi-package-mixs-terms-only.xlsx
+++ b/notebooks/output/multi-package-mixs-terms-only.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="461">
   <si>
     <t>field</t>
   </si>
@@ -661,6 +661,9 @@
     <t>Age of host at the time of sampling; relevant scale depends on species and study, e.g. Could be seconds for amoebae or centuries for trees</t>
   </si>
   <si>
+    <t>Substance produced by the body, e.g. Stool, mucus, where the sample was obtained from. For foundational model of anatomy ontology (fma) or Uber-anatomy ontology (UBERON) terms, please see https://www.ebi.ac.uk/ols/ontologies/fma or https://www.ebi.ac.uk/ols/ontologies/uberon</t>
+  </si>
+  <si>
     <t>Substance produced by the host's body, e.g. stool, mucus, where the sample was obtained from. For foundational model of anatomy ontology (fma) (v 4.11.0) or Uber-anatomy ontology (UBERON) (v releases/2014-06-15) terms, please see http://purl.bioontology.org/ontology/FMA or http://purl.bioontology.org/ontology/UBERON</t>
   </si>
   <si>
@@ -1094,6 +1097,9 @@
   </si>
   <si>
     <t>MIXS:0000255, MIXS:0000299, MIXS:0000354, MIXS:0000366, MIXS:0000378, MIXS:0000389, MIXS:0000562</t>
+  </si>
+  <si>
+    <t>MIXS:0000868</t>
   </si>
   <si>
     <t>MIXS:0000888, MIXS:0000911, MIXS:0000931, MIXS:0000951, MIXS:0000976</t>
@@ -1748,7 +1754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V148"/>
+  <dimension ref="A1:V149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1884,12 +1890,12 @@
         <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1952,12 +1958,12 @@
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -2020,12 +2026,12 @@
         <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -2088,12 +2094,12 @@
         <v>2</v>
       </c>
       <c r="V5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -2156,12 +2162,12 @@
         <v>7</v>
       </c>
       <c r="V6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -2224,12 +2230,12 @@
         <v>3</v>
       </c>
       <c r="V7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -2292,12 +2298,12 @@
         <v>3</v>
       </c>
       <c r="V8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -2360,12 +2366,12 @@
         <v>3</v>
       </c>
       <c r="V9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -2428,12 +2434,12 @@
         <v>3</v>
       </c>
       <c r="V10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -2496,12 +2502,12 @@
         <v>6</v>
       </c>
       <c r="V11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -2564,12 +2570,12 @@
         <v>2</v>
       </c>
       <c r="V12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -2632,12 +2638,12 @@
         <v>2</v>
       </c>
       <c r="V13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -2700,12 +2706,12 @@
         <v>2</v>
       </c>
       <c r="V14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -2768,12 +2774,12 @@
         <v>3</v>
       </c>
       <c r="V15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -2836,12 +2842,12 @@
         <v>2</v>
       </c>
       <c r="V16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="1">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -2904,12 +2910,12 @@
         <v>2</v>
       </c>
       <c r="V17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="1">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -2972,12 +2978,12 @@
         <v>2</v>
       </c>
       <c r="V18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="1">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -3040,12 +3046,12 @@
         <v>4</v>
       </c>
       <c r="V19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="1">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -3108,12 +3114,12 @@
         <v>3</v>
       </c>
       <c r="V20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="1">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -3176,12 +3182,12 @@
         <v>4</v>
       </c>
       <c r="V21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="1">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
@@ -3244,12 +3250,12 @@
         <v>6</v>
       </c>
       <c r="V22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="1">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -3312,12 +3318,12 @@
         <v>2</v>
       </c>
       <c r="V23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
@@ -3380,12 +3386,12 @@
         <v>3</v>
       </c>
       <c r="V24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="1">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
@@ -3448,12 +3454,12 @@
         <v>13</v>
       </c>
       <c r="V25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="1">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
@@ -3516,12 +3522,12 @@
         <v>6</v>
       </c>
       <c r="V26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="1">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
@@ -3584,12 +3590,12 @@
         <v>4</v>
       </c>
       <c r="V27" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="1">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
@@ -3652,12 +3658,12 @@
         <v>5</v>
       </c>
       <c r="V28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
@@ -3720,12 +3726,12 @@
         <v>2</v>
       </c>
       <c r="V29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="1">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
@@ -3788,12 +3794,12 @@
         <v>8</v>
       </c>
       <c r="V30" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="1">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -3856,12 +3862,12 @@
         <v>2</v>
       </c>
       <c r="V31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="1">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
@@ -3924,12 +3930,12 @@
         <v>2</v>
       </c>
       <c r="V32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="1">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
@@ -3992,12 +3998,12 @@
         <v>4</v>
       </c>
       <c r="V33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="1">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -4060,12 +4066,12 @@
         <v>6</v>
       </c>
       <c r="V34" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="1">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>54</v>
@@ -4128,12 +4134,12 @@
         <v>4</v>
       </c>
       <c r="V35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="1">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
@@ -4196,12 +4202,12 @@
         <v>6</v>
       </c>
       <c r="V36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="1">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
@@ -4264,12 +4270,12 @@
         <v>3</v>
       </c>
       <c r="V37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="1">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
@@ -4332,12 +4338,12 @@
         <v>2</v>
       </c>
       <c r="V38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="1">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
@@ -4400,12 +4406,12 @@
         <v>5</v>
       </c>
       <c r="V39" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="1">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
@@ -4468,12 +4474,12 @@
         <v>4</v>
       </c>
       <c r="V40" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="1">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
@@ -4536,12 +4542,12 @@
         <v>4</v>
       </c>
       <c r="V41" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="1">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>61</v>
@@ -4604,12 +4610,12 @@
         <v>2</v>
       </c>
       <c r="V42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="1">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>62</v>
@@ -4672,12 +4678,12 @@
         <v>9</v>
       </c>
       <c r="V43" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="1">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
@@ -4740,12 +4746,12 @@
         <v>2</v>
       </c>
       <c r="V44" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="1">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>64</v>
@@ -4808,12 +4814,12 @@
         <v>2</v>
       </c>
       <c r="V45" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="1">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
@@ -4876,12 +4882,12 @@
         <v>2</v>
       </c>
       <c r="V46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="1">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>66</v>
@@ -4944,12 +4950,12 @@
         <v>2</v>
       </c>
       <c r="V47" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="1">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
@@ -5012,12 +5018,12 @@
         <v>3</v>
       </c>
       <c r="V48" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="1">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>68</v>
@@ -5080,12 +5086,12 @@
         <v>7</v>
       </c>
       <c r="V49" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="1">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
@@ -5100,22 +5106,22 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5145,18 +5151,18 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="1">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
         <v>216</v>
@@ -5168,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5213,18 +5219,18 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V51" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="1">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>217</v>
@@ -5284,15 +5290,15 @@
         <v>6</v>
       </c>
       <c r="V52" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
         <v>218</v>
@@ -5304,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5349,18 +5355,18 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V53" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="1">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
         <v>219</v>
@@ -5372,22 +5378,22 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5402,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -5417,18 +5423,18 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V54" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="1">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
         <v>220</v>
@@ -5443,19 +5449,19 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5470,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -5485,18 +5491,18 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V55" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="1">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
         <v>221</v>
@@ -5538,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -5553,18 +5559,18 @@
         <v>0</v>
       </c>
       <c r="U56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="1">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
         <v>222</v>
@@ -5579,19 +5585,19 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5621,18 +5627,18 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V57" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="1">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
         <v>223</v>
@@ -5647,19 +5653,19 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5674,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -5689,18 +5695,18 @@
         <v>0</v>
       </c>
       <c r="U58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="1">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
         <v>224</v>
@@ -5742,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -5757,18 +5763,18 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V59" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="1">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
         <v>225</v>
@@ -5828,15 +5834,15 @@
         <v>7</v>
       </c>
       <c r="V60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
         <v>226</v>
@@ -5851,19 +5857,19 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5893,18 +5899,18 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V61" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="1">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>227</v>
@@ -5964,15 +5970,15 @@
         <v>2</v>
       </c>
       <c r="V62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="1">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
         <v>228</v>
@@ -5987,19 +5993,19 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -6014,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -6029,18 +6035,18 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V63" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="1">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
         <v>229</v>
@@ -6055,19 +6061,19 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -6082,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -6097,18 +6103,18 @@
         <v>0</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V64" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="1">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
         <v>230</v>
@@ -6168,15 +6174,15 @@
         <v>2</v>
       </c>
       <c r="V65" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="1">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
         <v>231</v>
@@ -6188,22 +6194,22 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -6218,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -6233,18 +6239,18 @@
         <v>0</v>
       </c>
       <c r="U66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V66" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="1">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
         <v>232</v>
@@ -6256,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6286,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -6301,18 +6307,18 @@
         <v>0</v>
       </c>
       <c r="U67">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V67" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="1">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
         <v>233</v>
@@ -6324,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6354,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -6369,18 +6375,18 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V68" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="1">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
         <v>234</v>
@@ -6392,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6437,18 +6443,18 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V69" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="1">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
         <v>235</v>
@@ -6508,15 +6514,15 @@
         <v>6</v>
       </c>
       <c r="V70" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="1">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
         <v>236</v>
@@ -6531,19 +6537,19 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6558,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -6573,18 +6579,18 @@
         <v>0</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V71" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="1">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
         <v>237</v>
@@ -6599,19 +6605,19 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -6641,18 +6647,18 @@
         <v>0</v>
       </c>
       <c r="U72">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V72" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="1">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
         <v>238</v>
@@ -6664,28 +6670,28 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -6694,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -6709,18 +6715,18 @@
         <v>0</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V73" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="1">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
         <v>239</v>
@@ -6780,15 +6786,15 @@
         <v>2</v>
       </c>
       <c r="V74" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="1">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
         <v>240</v>
@@ -6848,15 +6854,15 @@
         <v>2</v>
       </c>
       <c r="V75" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="1">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
         <v>241</v>
@@ -6916,15 +6922,15 @@
         <v>2</v>
       </c>
       <c r="V76" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
         <v>242</v>
@@ -6984,15 +6990,15 @@
         <v>2</v>
       </c>
       <c r="V77" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="1">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
         <v>243</v>
@@ -7052,15 +7058,15 @@
         <v>2</v>
       </c>
       <c r="V78" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="1">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
         <v>244</v>
@@ -7096,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -7105,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -7114,21 +7120,21 @@
         <v>0</v>
       </c>
       <c r="T79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V79" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="1">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
         <v>245</v>
@@ -7158,10 +7164,10 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -7185,18 +7191,18 @@
         <v>1</v>
       </c>
       <c r="U80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V80" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="1">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
         <v>246</v>
@@ -7256,15 +7262,15 @@
         <v>3</v>
       </c>
       <c r="V81" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="1">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
         <v>247</v>
@@ -7279,19 +7285,19 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -7300,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -7309,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -7318,27 +7324,27 @@
         <v>0</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V82" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="1">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
         <v>248</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -7347,19 +7353,19 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -7368,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -7377,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -7389,18 +7395,18 @@
         <v>0</v>
       </c>
       <c r="U83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V83" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="1">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" t="s">
         <v>249</v>
@@ -7412,131 +7418,131 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
         <v>1</v>
       </c>
       <c r="R84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U84">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="V84" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="1">
-        <v>262</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
         <v>250</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <v>1</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
         <v>1</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85">
         <v>1</v>
       </c>
       <c r="U85">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="V85" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="1">
-        <v>263</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s">
         <v>251</v>
@@ -7566,16 +7572,16 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>1</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -7587,24 +7593,24 @@
         <v>0</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86">
         <v>1</v>
       </c>
       <c r="U86">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V86" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="1">
-        <v>264</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
         <v>252</v>
@@ -7655,24 +7661,24 @@
         <v>0</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87">
         <v>1</v>
       </c>
       <c r="U87">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V87" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="1">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
         <v>253</v>
@@ -7702,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -7729,18 +7735,18 @@
         <v>1</v>
       </c>
       <c r="U88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V88" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="1">
-        <v>275</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" t="s">
         <v>254</v>
@@ -7800,15 +7806,15 @@
         <v>4</v>
       </c>
       <c r="V89" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="1">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s">
         <v>255</v>
@@ -7868,15 +7874,15 @@
         <v>4</v>
       </c>
       <c r="V90" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="1">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" t="s">
         <v>256</v>
@@ -7936,48 +7942,48 @@
         <v>4</v>
       </c>
       <c r="V91" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="1">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" t="s">
         <v>257</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -7986,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="P92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -7995,51 +8001,51 @@
         <v>0</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T92">
         <v>1</v>
       </c>
       <c r="U92">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="V92" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="1">
-        <v>280</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s">
         <v>258</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -8048,66 +8054,66 @@
         <v>1</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
         <v>0</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="V93" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="1">
-        <v>285</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
         <v>259</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -8116,66 +8122,66 @@
         <v>1</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U94">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="V94" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="1">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s">
         <v>260</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -8190,13 +8196,13 @@
         <v>1</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
         <v>1</v>
       </c>
       <c r="R95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -8205,18 +8211,18 @@
         <v>1</v>
       </c>
       <c r="U95">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V95" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="1">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96" t="s">
         <v>261</v>
@@ -8246,16 +8252,16 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96">
         <v>1</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -8264,54 +8270,54 @@
         <v>1</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96">
         <v>1</v>
       </c>
       <c r="U96">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V96" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="1">
-        <v>293</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" t="s">
         <v>262</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -8323,10 +8329,10 @@
         <v>1</v>
       </c>
       <c r="O97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -8335,51 +8341,51 @@
         <v>0</v>
       </c>
       <c r="S97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97">
         <v>1</v>
       </c>
       <c r="U97">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="V97" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="1">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C98" t="s">
         <v>263</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -8391,10 +8397,10 @@
         <v>1</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -8403,24 +8409,24 @@
         <v>0</v>
       </c>
       <c r="S98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98">
         <v>1</v>
       </c>
       <c r="U98">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="V98" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="1">
-        <v>296</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s">
         <v>264</v>
@@ -8480,15 +8486,15 @@
         <v>3</v>
       </c>
       <c r="V99" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="1">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C100" t="s">
         <v>265</v>
@@ -8527,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -8539,24 +8545,24 @@
         <v>0</v>
       </c>
       <c r="S100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T100">
         <v>1</v>
       </c>
       <c r="U100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V100" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="1">
-        <v>298</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C101" t="s">
         <v>266</v>
@@ -8607,24 +8613,24 @@
         <v>0</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101">
         <v>1</v>
       </c>
       <c r="U101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V101" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="1">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102" t="s">
         <v>267</v>
@@ -8654,16 +8660,16 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -8678,21 +8684,21 @@
         <v>0</v>
       </c>
       <c r="T102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V102" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="1">
-        <v>307</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
         <v>268</v>
@@ -8725,13 +8731,13 @@
         <v>1</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -8746,21 +8752,21 @@
         <v>0</v>
       </c>
       <c r="T103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U103">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V103" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="1">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C104" t="s">
         <v>269</v>
@@ -8796,16 +8802,16 @@
         <v>1</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -8814,21 +8820,21 @@
         <v>0</v>
       </c>
       <c r="T104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V104" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="1">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C105" t="s">
         <v>270</v>
@@ -8864,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -8882,21 +8888,21 @@
         <v>0</v>
       </c>
       <c r="T105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U105">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V105" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="1">
-        <v>324</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C106" t="s">
         <v>271</v>
@@ -8926,16 +8932,16 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106">
         <v>1</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -8953,18 +8959,18 @@
         <v>1</v>
       </c>
       <c r="U106">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V106" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="1">
-        <v>327</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
         <v>272</v>
@@ -8994,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -9009,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -9018,24 +9024,24 @@
         <v>0</v>
       </c>
       <c r="T107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V107" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="1">
-        <v>328</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -9092,18 +9098,18 @@
         <v>2</v>
       </c>
       <c r="V108" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="1">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C109" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -9130,22 +9136,22 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -9154,21 +9160,21 @@
         <v>0</v>
       </c>
       <c r="T109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V109" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="1">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C110" t="s">
         <v>274</v>
@@ -9180,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9204,16 +9210,16 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -9222,21 +9228,21 @@
         <v>0</v>
       </c>
       <c r="T110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V110" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="1">
-        <v>360</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C111" t="s">
         <v>275</v>
@@ -9296,21 +9302,21 @@
         <v>2</v>
       </c>
       <c r="V111" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="1">
-        <v>362</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" t="s">
         <v>276</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -9319,25 +9325,25 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -9355,24 +9361,24 @@
         <v>0</v>
       </c>
       <c r="S112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="V112" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="1">
-        <v>364</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C113" t="s">
         <v>277</v>
@@ -9408,16 +9414,16 @@
         <v>1</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P113">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -9426,21 +9432,21 @@
         <v>1</v>
       </c>
       <c r="T113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U113">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V113" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="1">
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C114" t="s">
         <v>278</v>
@@ -9500,15 +9506,15 @@
         <v>15</v>
       </c>
       <c r="V114" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="1">
-        <v>366</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C115" t="s">
         <v>279</v>
@@ -9568,42 +9574,42 @@
         <v>15</v>
       </c>
       <c r="V115" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="1">
-        <v>367</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116" t="s">
         <v>280</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -9612,39 +9618,39 @@
         <v>1</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R116">
         <v>0</v>
       </c>
       <c r="S116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="V116" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="1">
-        <v>368</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C117" t="s">
         <v>281</v>
@@ -9704,15 +9710,15 @@
         <v>2</v>
       </c>
       <c r="V117" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="1">
-        <v>370</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118" t="s">
         <v>282</v>
@@ -9772,42 +9778,42 @@
         <v>2</v>
       </c>
       <c r="V118" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" spans="1:22">
       <c r="A119" s="1">
-        <v>371</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C119" t="s">
         <v>283</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119">
         <v>1</v>
@@ -9816,66 +9822,66 @@
         <v>1</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U119">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="V119" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="1">
-        <v>372</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C120" t="s">
         <v>284</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120">
         <v>1</v>
@@ -9884,42 +9890,42 @@
         <v>1</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="V120" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="1">
-        <v>377</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -9976,18 +9982,18 @@
         <v>2</v>
       </c>
       <c r="V121" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="1">
-        <v>391</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C122" t="s">
-        <v>285</v>
+        <v>179</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -10014,22 +10020,22 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122">
         <v>0</v>
@@ -10038,21 +10044,21 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V122" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="1">
-        <v>398</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C123" t="s">
         <v>286</v>
@@ -10082,10 +10088,10 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -10103,24 +10109,24 @@
         <v>0</v>
       </c>
       <c r="S123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T123">
         <v>1</v>
       </c>
       <c r="U123">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V123" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="1">
-        <v>420</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C124" t="s">
         <v>287</v>
@@ -10171,24 +10177,24 @@
         <v>0</v>
       </c>
       <c r="S124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T124">
         <v>1</v>
       </c>
       <c r="U124">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V124" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="1">
-        <v>421</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C125" t="s">
         <v>288</v>
@@ -10224,16 +10230,16 @@
         <v>1</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P125">
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R125">
         <v>0</v>
@@ -10242,21 +10248,21 @@
         <v>0</v>
       </c>
       <c r="T125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V125" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="1">
-        <v>422</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C126" t="s">
         <v>289</v>
@@ -10292,16 +10298,16 @@
         <v>1</v>
       </c>
       <c r="N126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P126">
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R126">
         <v>0</v>
@@ -10310,21 +10316,21 @@
         <v>0</v>
       </c>
       <c r="T126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U126">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V126" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="127" spans="1:22">
       <c r="A127" s="1">
-        <v>430</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C127" t="s">
         <v>290</v>
@@ -10360,66 +10366,66 @@
         <v>1</v>
       </c>
       <c r="N127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P127">
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R127">
         <v>0</v>
       </c>
       <c r="S127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U127">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V127" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="128" spans="1:22">
       <c r="A128" s="1">
-        <v>431</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C128" t="s">
         <v>291</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -10428,16 +10434,16 @@
         <v>1</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R128">
         <v>0</v>
@@ -10446,63 +10452,63 @@
         <v>1</v>
       </c>
       <c r="T128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U128">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="V128" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="1">
-        <v>436</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C129" t="s">
         <v>292</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -10511,24 +10517,24 @@
         <v>0</v>
       </c>
       <c r="S129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129">
         <v>1</v>
       </c>
       <c r="U129">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="V129" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="1">
-        <v>440</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C130" t="s">
         <v>293</v>
@@ -10558,10 +10564,10 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -10573,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R130">
         <v>0</v>
@@ -10582,21 +10588,21 @@
         <v>0</v>
       </c>
       <c r="T130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U130">
         <v>2</v>
       </c>
       <c r="V130" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="1">
-        <v>441</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C131" t="s">
         <v>294</v>
@@ -10656,15 +10662,15 @@
         <v>2</v>
       </c>
       <c r="V131" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:22">
       <c r="A132" s="1">
-        <v>442</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132" t="s">
         <v>295</v>
@@ -10694,13 +10700,13 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O132">
         <v>0</v>
@@ -10709,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R132">
         <v>0</v>
@@ -10724,15 +10730,15 @@
         <v>2</v>
       </c>
       <c r="V132" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="1">
-        <v>443</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" t="s">
         <v>296</v>
@@ -10768,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -10786,21 +10792,21 @@
         <v>0</v>
       </c>
       <c r="T133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U133">
         <v>2</v>
       </c>
       <c r="V133" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="1">
-        <v>446</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" t="s">
         <v>297</v>
@@ -10830,10 +10836,10 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -10845,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R134">
         <v>0</v>
@@ -10854,21 +10860,21 @@
         <v>0</v>
       </c>
       <c r="T134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U134">
         <v>2</v>
       </c>
       <c r="V134" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:22">
       <c r="A135" s="1">
-        <v>447</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" t="s">
         <v>298</v>
@@ -10919,24 +10925,24 @@
         <v>0</v>
       </c>
       <c r="S135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V135" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="1">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" t="s">
         <v>299</v>
@@ -10966,13 +10972,13 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -10981,30 +10987,30 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V136" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="1">
-        <v>450</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C137" t="s">
         <v>300</v>
@@ -11064,15 +11070,15 @@
         <v>3</v>
       </c>
       <c r="V137" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="1">
-        <v>454</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C138" t="s">
         <v>301</v>
@@ -11102,13 +11108,13 @@
         <v>0</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O138">
         <v>0</v>
@@ -11117,30 +11123,30 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S138">
         <v>0</v>
       </c>
       <c r="T138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U138">
         <v>3</v>
       </c>
       <c r="V138" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:22">
       <c r="A139" s="1">
-        <v>455</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C139" t="s">
         <v>302</v>
@@ -11194,21 +11200,21 @@
         <v>0</v>
       </c>
       <c r="T139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V139" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="140" spans="1:22">
       <c r="A140" s="1">
-        <v>460</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C140" t="s">
         <v>303</v>
@@ -11238,13 +11244,13 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O140">
         <v>0</v>
@@ -11253,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R140">
         <v>0</v>
@@ -11262,30 +11268,30 @@
         <v>0</v>
       </c>
       <c r="T140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V140" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:22">
       <c r="A141" s="1">
-        <v>468</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C141" t="s">
         <v>304</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -11312,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -11321,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R141">
         <v>0</v>
@@ -11330,30 +11336,30 @@
         <v>0</v>
       </c>
       <c r="T141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V141" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="1">
-        <v>469</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C142" t="s">
         <v>305</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -11374,10 +11380,10 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -11404,15 +11410,15 @@
         <v>2</v>
       </c>
       <c r="V142" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="1">
-        <v>470</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C143" t="s">
         <v>306</v>
@@ -11472,15 +11478,15 @@
         <v>2</v>
       </c>
       <c r="V143" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="144" spans="1:22">
       <c r="A144" s="1">
-        <v>472</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C144" t="s">
         <v>307</v>
@@ -11540,15 +11546,15 @@
         <v>2</v>
       </c>
       <c r="V144" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="145" spans="1:22">
       <c r="A145" s="1">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C145" t="s">
         <v>308</v>
@@ -11578,13 +11584,13 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O145">
         <v>0</v>
@@ -11593,10 +11599,10 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -11605,18 +11611,18 @@
         <v>0</v>
       </c>
       <c r="U145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V145" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:22">
       <c r="A146" s="1">
-        <v>486</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C146" t="s">
         <v>309</v>
@@ -11652,39 +11658,39 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P146">
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S146">
         <v>0</v>
       </c>
       <c r="T146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V146" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="147" spans="1:22">
       <c r="A147" s="1">
-        <v>495</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C147" t="s">
         <v>310</v>
@@ -11714,16 +11720,16 @@
         <v>0</v>
       </c>
       <c r="L147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N147">
         <v>0</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -11738,21 +11744,21 @@
         <v>0</v>
       </c>
       <c r="T147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U147">
         <v>2</v>
       </c>
       <c r="V147" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="1">
-        <v>509</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C148" t="s">
         <v>311</v>
@@ -11812,7 +11818,75 @@
         <v>2</v>
       </c>
       <c r="V148" t="s">
-        <v>458</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>167</v>
+      </c>
+      <c r="C149" t="s">
+        <v>312</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>2</v>
+      </c>
+      <c r="V149" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
